--- a/param_results.xlsx
+++ b/param_results.xlsx
@@ -22,16 +22,16 @@
     <t>Params</t>
   </si>
   <si>
-    <t>BERT2ITM</t>
-  </si>
-  <si>
-    <t>BOW2ITM</t>
-  </si>
-  <si>
-    <t>MOSTPOP2ITM</t>
-  </si>
-  <si>
-    <t>USEM2ITM</t>
+    <t>MostPop</t>
+  </si>
+  <si>
+    <t>TeRCEx</t>
+  </si>
+  <si>
+    <t>USEM</t>
+  </si>
+  <si>
+    <t>BERT</t>
   </si>
   <si>
     <t>Set</t>
@@ -40,37 +40,37 @@
     <t>Subset</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>pois</t>
-  </si>
-  <si>
-    <t>restaurants</t>
-  </si>
-  <si>
-    <t>digital_music</t>
-  </si>
-  <si>
-    <t>fashion</t>
-  </si>
-  <si>
-    <t>barcelona</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
-    <t>madrid</t>
-  </si>
-  <si>
-    <t>newyorkcity</t>
-  </si>
-  <si>
-    <t>paris</t>
-  </si>
-  <si>
-    <t>gijon</t>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>FSH</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>LND</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
+    <t>GJN</t>
   </si>
 </sst>
 </file>
@@ -476,16 +476,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>4518532</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1451536</v>
+        <v>523146</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>69289410</v>
       </c>
       <c r="F4">
-        <v>69454596</v>
+        <v>4476994</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -494,16 +494,16 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4476994</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>523146</v>
+        <v>1451536</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>69454596</v>
       </c>
       <c r="F5">
-        <v>69289410</v>
+        <v>4518532</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -514,16 +514,16 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4397014</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>85140</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>68971350</v>
       </c>
       <c r="F6">
-        <v>68971350</v>
+        <v>4397014</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -532,16 +532,16 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4394047</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>45927</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>68959551</v>
       </c>
       <c r="F7">
-        <v>68959551</v>
+        <v>4394047</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -550,16 +550,16 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>4403206</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>166294</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>68995974</v>
       </c>
       <c r="F8">
-        <v>68995974</v>
+        <v>4403206</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -568,16 +568,16 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>4395595</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>70500</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>68965707</v>
       </c>
       <c r="F9">
-        <v>68965707</v>
+        <v>4395595</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,16 +586,16 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>4392628</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>41392</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>68953908</v>
       </c>
       <c r="F10">
-        <v>68953908</v>
+        <v>4392628</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,16 +606,16 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>4556458</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2780166</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>69605418</v>
       </c>
       <c r="F11">
-        <v>69605418</v>
+        <v>4556458</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -624,16 +624,16 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>4405141</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>95360</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>69003669</v>
       </c>
       <c r="F12">
-        <v>69003669</v>
+        <v>4405141</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -642,16 +642,16 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>4596706</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>4098072</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>69765474</v>
       </c>
       <c r="F13">
-        <v>69765474</v>
+        <v>4596706</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,16 +660,16 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>4641985</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>5808110</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>69945537</v>
       </c>
       <c r="F14">
-        <v>69945537</v>
+        <v>4641985</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -678,16 +678,16 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>4826455</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>8749230</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>70679127</v>
       </c>
       <c r="F15">
-        <v>70679127</v>
+        <v>4826455</v>
       </c>
     </row>
   </sheetData>

--- a/param_results.xlsx
+++ b/param_results.xlsx
@@ -49,25 +49,25 @@
     <t>RST</t>
   </si>
   <si>
+    <t>MSC</t>
+  </si>
+  <si>
     <t>FSH</t>
   </si>
   <si>
-    <t>MSC</t>
-  </si>
-  <si>
     <t>BCN</t>
   </si>
   <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
     <t>LND</t>
-  </si>
-  <si>
-    <t>MDR</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>PRS</t>
   </si>
   <si>
     <t>GJN</t>
@@ -479,13 +479,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>523146</v>
+        <v>1451536</v>
       </c>
       <c r="E4">
-        <v>69289410</v>
+        <v>69454596</v>
       </c>
       <c r="F4">
-        <v>4476994</v>
+        <v>4518532</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -497,13 +497,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1451536</v>
+        <v>523146</v>
       </c>
       <c r="E5">
-        <v>69454596</v>
+        <v>69289410</v>
       </c>
       <c r="F5">
-        <v>4518532</v>
+        <v>4476994</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>45927</v>
+        <v>166294</v>
       </c>
       <c r="E7">
-        <v>68959551</v>
+        <v>68995974</v>
       </c>
       <c r="F7">
-        <v>4394047</v>
+        <v>4403206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>166294</v>
+        <v>70500</v>
       </c>
       <c r="E8">
-        <v>68995974</v>
+        <v>68965707</v>
       </c>
       <c r="F8">
-        <v>4403206</v>
+        <v>4395595</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>70500</v>
+        <v>41392</v>
       </c>
       <c r="E9">
-        <v>68965707</v>
+        <v>68953908</v>
       </c>
       <c r="F9">
-        <v>4395595</v>
+        <v>4392628</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>41392</v>
+        <v>45927</v>
       </c>
       <c r="E10">
-        <v>68953908</v>
+        <v>68959551</v>
       </c>
       <c r="F10">
-        <v>4392628</v>
+        <v>4394047</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -603,43 +603,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2780166</v>
+        <v>95360</v>
       </c>
       <c r="E11">
-        <v>69605418</v>
+        <v>69003669</v>
       </c>
       <c r="F11">
-        <v>4556458</v>
+        <v>4405141</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>95360</v>
+        <v>2780166</v>
       </c>
       <c r="E12">
-        <v>69003669</v>
+        <v>69605418</v>
       </c>
       <c r="F12">
-        <v>4405141</v>
+        <v>4556458</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -657,7 +657,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -675,7 +675,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>0</v>
